--- a/archivos/parametros_empresa.xlsx
+++ b/archivos/parametros_empresa.xlsx
@@ -100,7 +100,7 @@
     <t xml:space="preserve">EMPRESA</t>
   </si>
   <si>
-    <t xml:space="preserve">False</t>
+    <t xml:space="preserve">True</t>
   </si>
 </sst>
 </file>
@@ -414,7 +414,7 @@
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="1" sqref="A2 D5"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -479,7 +479,7 @@
   <dimension ref="A1:A1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -548,12 +548,12 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
     </row>

--- a/archivos/parametros_empresa.xlsx
+++ b/archivos/parametros_empresa.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="horario" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="servicio" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="encargado" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="sw" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="precios" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,11 +24,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t xml:space="preserve">HORA</t>
   </si>
   <si>
+    <t xml:space="preserve">09:00</t>
+  </si>
+  <si>
     <t xml:space="preserve">10:00</t>
   </si>
   <si>
@@ -67,7 +71,7 @@
     <t xml:space="preserve">Corte Hombre</t>
   </si>
   <si>
-    <t xml:space="preserve">Corte Dama</t>
+    <t xml:space="preserve">Corte Mujer</t>
   </si>
   <si>
     <t xml:space="preserve">Arreglo Barba</t>
@@ -82,33 +86,64 @@
     <t xml:space="preserve">ENCARGADOS</t>
   </si>
   <si>
+    <t xml:space="preserve">EMAIL</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jose Alfaro</t>
   </si>
   <si>
+    <t xml:space="preserve">josealfaro@gmail.com </t>
+  </si>
+  <si>
     <t xml:space="preserve">Andres Garcia</t>
   </si>
   <si>
+    <t xml:space="preserve">andresgar@xxxx.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mario Vargas</t>
   </si>
   <si>
+    <t xml:space="preserve">mariovargas@yyy.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">Stella Gomez</t>
   </si>
   <si>
+    <t xml:space="preserve">stellagomez@nnn.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sandra Moreno</t>
   </si>
   <si>
+    <t xml:space="preserve">Sandramoreno@sss.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">josea_garciat@hotmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">EMPRESA</t>
   </si>
   <si>
     <t xml:space="preserve">True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">concepto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">otro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -217,7 +252,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -246,7 +281,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -327,10 +370,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -340,7 +383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -393,6 +436,11 @@
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -413,8 +461,8 @@
   </sheetPr>
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -424,32 +472,32 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -476,54 +524,83 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A1048576"/>
+  <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="20.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.92"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>22</v>
+        <v>27</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>23</v>
+      <c r="A6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>17</v>
+      <c r="A7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="andresgar@xxxx.com"/>
+    <hyperlink ref="B4" r:id="rId2" display="mariovargas@yyy.com"/>
+    <hyperlink ref="B5" r:id="rId3" display="stellagomez@nnn.com"/>
+    <hyperlink ref="B6" r:id="rId4" display="Sandramoreno@sss.com"/>
+    <hyperlink ref="B7" r:id="rId5" display="josea_garciat@hotmail.com"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -541,7 +618,7 @@
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -549,12 +626,85 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;KffffffPágina &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="9" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="9" t="n">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="9" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="9" t="n">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/archivos/parametros_empresa.xlsx
+++ b/archivos/parametros_empresa.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="horario" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,6 +13,7 @@
     <sheet name="encargado" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="sw" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="precios" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="envio" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
   <si>
     <t xml:space="preserve">HORA</t>
   </si>
@@ -68,21 +69,39 @@
     <t xml:space="preserve">SERVICIOS</t>
   </si>
   <si>
+    <t xml:space="preserve">VALOR</t>
+  </si>
+  <si>
     <t xml:space="preserve">Corte Hombre</t>
   </si>
   <si>
+    <t xml:space="preserve">15.000</t>
+  </si>
+  <si>
     <t xml:space="preserve">Corte Mujer</t>
   </si>
   <si>
+    <t xml:space="preserve">25.000</t>
+  </si>
+  <si>
     <t xml:space="preserve">Arreglo Barba</t>
   </si>
   <si>
+    <t xml:space="preserve">10.000</t>
+  </si>
+  <si>
     <t xml:space="preserve">Afeitar</t>
   </si>
   <si>
+    <t xml:space="preserve">12.000</t>
+  </si>
+  <si>
     <t xml:space="preserve">Otro</t>
   </si>
   <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
     <t xml:space="preserve">ENCARGADOS</t>
   </si>
   <si>
@@ -135,15 +154,40 @@
   </si>
   <si>
     <t xml:space="preserve">otro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TELEFONO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOMBRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SALDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FECHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESTADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIAS VENCIDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEXTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alejanadro Garcia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -252,7 +296,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -278,6 +322,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -285,11 +341,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -372,8 +436,8 @@
   </sheetPr>
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -459,45 +523,64 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="17.24"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -526,70 +609,70 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="20.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="23.92"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>31</v>
+        <v>23</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -618,20 +701,20 @@
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -652,59 +735,229 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="13.67"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>34</v>
+      <c r="A1" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>14</v>
+      <c r="A2" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B2" s="9" t="n">
         <v>15000</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>15</v>
+      <c r="A3" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B3" s="9" t="n">
         <v>25000</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>16</v>
+      <c r="A4" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B4" s="9" t="n">
         <v>10000</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>17</v>
+      <c r="A5" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B5" s="9" t="n">
         <v>12000</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>36</v>
+      <c r="A6" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;KffffffPágina &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:Z4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="46.45"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="n">
+        <v>573205511091</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="12" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D2" s="13" t="n">
+        <v>45444</v>
+      </c>
+      <c r="E2" s="10" t="str">
+        <f aca="true">IF(D2&lt;TODAY(),"VENCIDO","VIGENTE")</f>
+        <v>VENCIDO</v>
+      </c>
+      <c r="F2" s="11" t="n">
+        <f aca="true">IF(D2&lt;TODAY(),TODAY()-D2,"-")</f>
+        <v>34</v>
+      </c>
+      <c r="G2" s="11" t="str">
+        <f aca="false">"Cordial saludo "&amp;B2&amp;"."&amp;"%0A"&amp;"%0A"&amp;"me permitoinformarle quepresenta un atraso de "&amp;F2&amp;"dias en el pago de su cuenta"&amp;"%0A"&amp;"0A"&amp;"Su saldo es :"&amp;C2</f>
+        <v>Cordial saludo Alejanadro Garcia.%0A%0Ame permitoinformarle quepresenta un atraso de 34dias en el pago de su cuenta%0A0ASu saldo es :20000</v>
+      </c>
+      <c r="H2" s="14"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="n">
+        <v>573205511092</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="12" t="n">
+        <v>20001</v>
+      </c>
+      <c r="D3" s="13" t="n">
+        <v>45506</v>
+      </c>
+      <c r="E3" s="10" t="str">
+        <f aca="true">IF(D3&lt;TODAY(),"VENCIDO","VIGENTE")</f>
+        <v>VIGENTE</v>
+      </c>
+      <c r="F3" s="11" t="str">
+        <f aca="true">IF(D3&lt;TODAY(),TODAY()-D3,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="G3" s="11" t="str">
+        <f aca="false">"Cordial saludo "&amp;B3&amp;"."&amp;"%0A"&amp;"%0A"&amp;"me permitoinformarle quepresenta un atraso de "&amp;F3&amp;"dias en el pago de su cuenta"&amp;"%0A"&amp;"0A"&amp;"Su saldo es :"&amp;C3</f>
+        <v>Cordial saludo Alejanadro Garcia.%0A%0Ame permitoinformarle quepresenta un atraso de -dias en el pago de su cuenta%0A0ASu saldo es :20001</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="n">
+        <v>573205511093</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="12" t="n">
+        <v>20002</v>
+      </c>
+      <c r="D4" s="13" t="n">
+        <v>45507</v>
+      </c>
+      <c r="E4" s="10" t="str">
+        <f aca="true">IF(D4&lt;TODAY(),"VENCIDO","VIGENTE")</f>
+        <v>VIGENTE</v>
+      </c>
+      <c r="F4" s="11" t="str">
+        <f aca="true">IF(D4&lt;TODAY(),TODAY()-D4,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="G4" s="11" t="str">
+        <f aca="false">"Cordial saludo "&amp;B4&amp;"."&amp;"%0A"&amp;"%0A"&amp;"me permitoinformarle quepresenta un atraso de "&amp;F4&amp;"dias en el pago de su cuenta"&amp;"%0A"&amp;"0A"&amp;"Su saldo es :"&amp;C4</f>
+        <v>Cordial saludo Alejanadro Garcia.%0A%0Ame permitoinformarle quepresenta un atraso de -dias en el pago de su cuenta%0A0ASu saldo es :20002</v>
       </c>
     </row>
   </sheetData>

--- a/archivos/parametros_empresa.xlsx
+++ b/archivos/parametros_empresa.xlsx
@@ -5,15 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="horario" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="servicio" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="encargado" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="sw" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="precios" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="envio" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="precios" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="sw" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t xml:space="preserve">HORA</t>
   </si>
@@ -72,30 +71,45 @@
     <t xml:space="preserve">VALOR</t>
   </si>
   <si>
+    <t xml:space="preserve">IDCALENDAR</t>
+  </si>
+  <si>
     <t xml:space="preserve">Corte Hombre</t>
   </si>
   <si>
     <t xml:space="preserve">15.000</t>
   </si>
   <si>
+    <t xml:space="preserve">617d2384ffee7bf87962b771b740e372fc7d8b1e1bd5db386d3c38b0dbf0bce5@group.calendar.google.com </t>
+  </si>
+  <si>
     <t xml:space="preserve">Corte Mujer</t>
   </si>
   <si>
     <t xml:space="preserve">25.000</t>
   </si>
   <si>
+    <t xml:space="preserve">28907ee879da61f67b82a7af31f161bddc00760d22f951a6691994451038b7d7@group.calendar.google.com </t>
+  </si>
+  <si>
     <t xml:space="preserve">Arreglo Barba</t>
   </si>
   <si>
     <t xml:space="preserve">10.000</t>
   </si>
   <si>
+    <t xml:space="preserve">228e2b2270fa33d0e9708f40ef5f23ac1315a7f7ddddaf262da22562c141d3e4@group.calendar.google.com </t>
+  </si>
+  <si>
     <t xml:space="preserve">Afeitar</t>
   </si>
   <si>
     <t xml:space="preserve">12.000</t>
   </si>
   <si>
+    <t xml:space="preserve">171e4f700155cd208306f2de463285ccd9481949193e55b88db4b0241fedbb6d@group.calendar.google.com </t>
+  </si>
+  <si>
     <t xml:space="preserve">Otro</t>
   </si>
   <si>
@@ -111,7 +125,7 @@
     <t xml:space="preserve">Jose Alfaro</t>
   </si>
   <si>
-    <t xml:space="preserve">josealfaro@gmail.com </t>
+    <t xml:space="preserve">josealfaro@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Andres Garcia</t>
@@ -141,53 +155,28 @@
     <t xml:space="preserve">josea_garciat@hotmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">concepto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">otro</t>
+  </si>
+  <si>
     <t xml:space="preserve">EMPRESA</t>
   </si>
   <si>
     <t xml:space="preserve">True</t>
-  </si>
-  <si>
-    <t xml:space="preserve">concepto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">valor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">otro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TELEFONO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOMBRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SALDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FECHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESTADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIAS VENCIDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEXTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alejanadro Garcia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -296,7 +285,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -315,6 +304,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -334,26 +327,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -436,8 +409,8 @@
   </sheetPr>
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -523,16 +496,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="17.24"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="86.93"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -542,45 +516,63 @@
       <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="C1" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>17</v>
+      <c r="A3" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>19</v>
+      <c r="A4" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>21</v>
+      <c r="A5" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
-        <v>23</v>
+      <c r="A6" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -609,8 +601,8 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -621,68 +613,69 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="andresgar@xxxx.com"/>
-    <hyperlink ref="B4" r:id="rId2" display="mariovargas@yyy.com"/>
-    <hyperlink ref="B5" r:id="rId3" display="stellagomez@nnn.com"/>
-    <hyperlink ref="B6" r:id="rId4" display="Sandramoreno@sss.com"/>
-    <hyperlink ref="B7" r:id="rId5" display="josea_garciat@hotmail.com"/>
+    <hyperlink ref="B2" r:id="rId1" display="josealfaro@gmail.com"/>
+    <hyperlink ref="B3" r:id="rId2" display="andresgar@xxxx.com"/>
+    <hyperlink ref="B4" r:id="rId3" display="mariovargas@yyy.com"/>
+    <hyperlink ref="B5" r:id="rId4" display="stellagomez@nnn.com"/>
+    <hyperlink ref="B6" r:id="rId5" display="Sandramoreno@sss.com"/>
+    <hyperlink ref="B7" r:id="rId6" display="josea_garciat@hotmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -699,22 +692,61 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="13.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="11.53"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>16</v>
+      </c>
+      <c r="B2" s="10" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="10" t="n">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="10" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="10" t="n">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -733,231 +765,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="13.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="11.53"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="9" t="n">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="9" t="n">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="9" t="n">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="9" t="n">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;KffffffPágina &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:Z4"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="46.45"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="n">
-        <v>573205511091</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="12" t="n">
-        <v>20000</v>
-      </c>
-      <c r="D2" s="13" t="n">
-        <v>45444</v>
-      </c>
-      <c r="E2" s="10" t="str">
-        <f aca="true">IF(D2&lt;TODAY(),"VENCIDO","VIGENTE")</f>
-        <v>VENCIDO</v>
-      </c>
-      <c r="F2" s="11" t="n">
-        <f aca="true">IF(D2&lt;TODAY(),TODAY()-D2,"-")</f>
-        <v>34</v>
-      </c>
-      <c r="G2" s="11" t="str">
-        <f aca="false">"Cordial saludo "&amp;B2&amp;"."&amp;"%0A"&amp;"%0A"&amp;"me permitoinformarle quepresenta un atraso de "&amp;F2&amp;"dias en el pago de su cuenta"&amp;"%0A"&amp;"0A"&amp;"Su saldo es :"&amp;C2</f>
-        <v>Cordial saludo Alejanadro Garcia.%0A%0Ame permitoinformarle quepresenta un atraso de 34dias en el pago de su cuenta%0A0ASu saldo es :20000</v>
-      </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="n">
-        <v>573205511092</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="12" t="n">
-        <v>20001</v>
-      </c>
-      <c r="D3" s="13" t="n">
-        <v>45506</v>
-      </c>
-      <c r="E3" s="10" t="str">
-        <f aca="true">IF(D3&lt;TODAY(),"VENCIDO","VIGENTE")</f>
-        <v>VIGENTE</v>
-      </c>
-      <c r="F3" s="11" t="str">
-        <f aca="true">IF(D3&lt;TODAY(),TODAY()-D3,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="G3" s="11" t="str">
-        <f aca="false">"Cordial saludo "&amp;B3&amp;"."&amp;"%0A"&amp;"%0A"&amp;"me permitoinformarle quepresenta un atraso de "&amp;F3&amp;"dias en el pago de su cuenta"&amp;"%0A"&amp;"0A"&amp;"Su saldo es :"&amp;C3</f>
-        <v>Cordial saludo Alejanadro Garcia.%0A%0Ame permitoinformarle quepresenta un atraso de -dias en el pago de su cuenta%0A0ASu saldo es :20001</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="n">
-        <v>573205511093</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="12" t="n">
-        <v>20002</v>
-      </c>
-      <c r="D4" s="13" t="n">
-        <v>45507</v>
-      </c>
-      <c r="E4" s="10" t="str">
-        <f aca="true">IF(D4&lt;TODAY(),"VENCIDO","VIGENTE")</f>
-        <v>VIGENTE</v>
-      </c>
-      <c r="F4" s="11" t="str">
-        <f aca="true">IF(D4&lt;TODAY(),TODAY()-D4,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="G4" s="11" t="str">
-        <f aca="false">"Cordial saludo "&amp;B4&amp;"."&amp;"%0A"&amp;"%0A"&amp;"me permitoinformarle quepresenta un atraso de "&amp;F4&amp;"dias en el pago de su cuenta"&amp;"%0A"&amp;"0A"&amp;"Su saldo es :"&amp;C4</f>
-        <v>Cordial saludo Alejanadro Garcia.%0A%0Ame permitoinformarle quepresenta un atraso de -dias en el pago de su cuenta%0A0ASu saldo es :20002</v>
       </c>
     </row>
   </sheetData>

--- a/archivos/parametros_empresa.xlsx
+++ b/archivos/parametros_empresa.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
   <si>
     <t xml:space="preserve">HORA</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t xml:space="preserve">EMAIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TELEFONO</t>
   </si>
   <si>
     <t xml:space="preserve">Jose Alfaro</t>
@@ -285,7 +288,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -303,23 +306,19 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -506,7 +505,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="17.24"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="12.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="86.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="86.93"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -516,7 +515,7 @@
       <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -599,10 +598,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1048576"/>
+  <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -618,53 +617,74 @@
       <c r="B1" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="C1" s="0" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="8" t="s">
         <v>33</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>3200000000</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>3205511091</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>3200000002</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>3200000003</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
-        <v>40</v>
+      <c r="A6" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>3200000004</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -701,22 +721,22 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="13.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="10" t="s">
         <v>44</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="10" t="n">
+      <c r="B2" s="9" t="n">
         <v>15000</v>
       </c>
     </row>
@@ -724,7 +744,7 @@
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="10" t="n">
+      <c r="B3" s="9" t="n">
         <v>25000</v>
       </c>
     </row>
@@ -732,7 +752,7 @@
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="10" t="n">
+      <c r="B4" s="9" t="n">
         <v>10000</v>
       </c>
     </row>
@@ -740,13 +760,13 @@
       <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="10" t="n">
+      <c r="B5" s="9" t="n">
         <v>12000</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -775,12 +795,12 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/archivos/parametros_empresa.xlsx
+++ b/archivos/parametros_empresa.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="horario" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,6 +13,7 @@
     <sheet name="encargado" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="precios" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="sw" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="emisor" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
   <si>
     <t xml:space="preserve">HORA</t>
   </si>
@@ -171,6 +172,27 @@
   </si>
   <si>
     <t xml:space="preserve">True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOMBRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIRECCION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIUDAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barberia Stylos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carrera 11 No. 9 – 47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Girardot</t>
   </si>
 </sst>
 </file>
@@ -600,7 +622,7 @@
   </sheetPr>
   <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -617,7 +639,7 @@
       <c r="B1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -628,7 +650,7 @@
       <c r="B2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="2" t="n">
         <v>3200000000</v>
       </c>
     </row>
@@ -639,7 +661,7 @@
       <c r="B3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="2" t="n">
         <v>3205511091</v>
       </c>
     </row>
@@ -650,7 +672,7 @@
       <c r="B4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="2" t="n">
         <v>3200000002</v>
       </c>
     </row>
@@ -661,7 +683,7 @@
       <c r="B5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="2" t="n">
         <v>3200000003</v>
       </c>
     </row>
@@ -672,7 +694,7 @@
       <c r="B6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="2" t="n">
         <v>3200000004</v>
       </c>
     </row>
@@ -683,7 +705,7 @@
       <c r="B7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -788,7 +810,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -801,6 +823,63 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;KffffffPágina &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.68"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>987654321</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/archivos/parametros_empresa.xlsx
+++ b/archivos/parametros_empresa.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="horario" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
   <si>
     <t xml:space="preserve">HORA</t>
   </si>
@@ -171,7 +171,13 @@
     <t xml:space="preserve">EMPRESA</t>
   </si>
   <si>
+    <t xml:space="preserve">URLSHEET</t>
+  </si>
+  <si>
     <t xml:space="preserve">True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1fx7i_GmqdPns3nLCV8zYWBW_x3I3PLfGadTN3jwgeNU/edit?gid=0#gid=0</t>
   </si>
   <si>
     <t xml:space="preserve">NOMBRE</t>
@@ -310,7 +316,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -349,6 +355,10 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -807,25 +817,37 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="96.11"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" location="gid=0" display="https://docs.google.com/spreadsheets/d/1fx7i_GmqdPns3nLCV8zYWBW_x3I3PLfGadTN3jwgeNU/edit?gid=0#gid=0"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -843,43 +865,43 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="13.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="10.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="18.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="0" t="s">
+      <c r="A1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="0" t="n">
+      <c r="A2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="2" t="n">
         <v>987654321</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>55</v>
+      <c r="C2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/archivos/parametros_empresa.xlsx
+++ b/archivos/parametros_empresa.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="horario" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
   <si>
     <t xml:space="preserve">HORA</t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t xml:space="preserve">TELEFONO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEDULA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CODIGOQR</t>
   </si>
   <si>
     <t xml:space="preserve">Jose Alfaro</t>
@@ -316,7 +322,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -355,10 +361,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -630,10 +632,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1048576"/>
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -652,60 +654,81 @@
       <c r="C1" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="D1" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3200000000</v>
       </c>
+      <c r="D2" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3205511091</v>
       </c>
+      <c r="D3" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3200000002</v>
       </c>
+      <c r="D4" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3200000003</v>
       </c>
+      <c r="D5" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3200000004</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -713,10 +736,13 @@
         <v>28</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -758,10 +784,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -798,7 +824,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -819,29 +845,29 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="96.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="96.11"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -878,30 +904,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>987654321</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
